--- a/Data/RotationCopy.xlsx
+++ b/Data/RotationCopy.xlsx
@@ -1,51 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gecexgokyuzu\Desktop\WaiterRotationApp\waiter_rotation_assigner\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF309550-3B90-47EA-91BD-E7EBF80FB513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1050" yWindow="8685" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cycle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cycle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Lesly</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Hakan</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Yolanda</t>
+  </si>
+  <si>
+    <t>Pragya</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>Sivu</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>12/03/23</t>
+  </si>
+  <si>
+    <t>16-17-18</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Table1</t>
+  </si>
+  <si>
+    <t>NewSection</t>
+  </si>
+  <si>
+    <t>Table2-3</t>
+  </si>
+  <si>
+    <t>13-14-15</t>
+  </si>
+  <si>
+    <t>Table4-5</t>
+  </si>
+  <si>
+    <t>SmokingSection</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AEF359"/>
-        <bgColor rgb="00AEF359"/>
+        <fgColor rgb="FFAEF359"/>
+        <bgColor rgb="FFAEF359"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BC544B"/>
-        <bgColor rgb="00BC544B"/>
+        <fgColor rgb="FFBC544B"/>
+        <bgColor rgb="FFBC544B"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,95 +132,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,183 +458,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Lesly</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ismail</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Alexandra</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Yolanda</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pragya</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Maroon</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Sivu</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Kevin</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Patrick</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>12/03/23</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>16-17-18</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Table1</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>NewSection</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>NewSection</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Table2-3</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>13-14-15</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Table4-5</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>NewSection</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>SmokingSection</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>23/03/23</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>NewSection</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>NewSection</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>16-17-18</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>13-14-15</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Table2-3</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>Table4-5</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>Table1</t>
-        </is>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/RotationCopy.xlsx
+++ b/Data/RotationCopy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gecexgokyuzu\Desktop\WaiterRotationApp\waiter_rotation_assigner\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF309550-3B90-47EA-91BD-E7EBF80FB513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE45EB9-3B9D-4358-BF65-2E63FDCF0C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="8685" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="3660" windowWidth="15225" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cycle" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>SmokingSection</t>
+  </si>
+  <si>
+    <t>24/03/23</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +546,120 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/RotationCopy.xlsx
+++ b/Data/RotationCopy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gecexgokyuzu\Desktop\WaiterRotationApp\waiter_rotation_assigner\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE45EB9-3B9D-4358-BF65-2E63FDCF0C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD407CB-C037-413F-83A0-9B546C318222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="975" yWindow="3660" windowWidth="15225" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>SmokingSection</t>
-  </si>
-  <si>
-    <t>24/03/23</t>
   </si>
 </sst>
 </file>
@@ -462,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,120 +543,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
